--- a/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>44683</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-5.62</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.71</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-0.41</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-2.21</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-0.92</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-7.46</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-1.95</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-2.31</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -756,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>-4.06</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -765,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>-2.24</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -774,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>-1.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -783,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -792,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-0.39</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -801,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>-7.51</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -819,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-0.47</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -828,7 +828,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-4.36</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-1.04</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -846,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>-2.19</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -855,7 +855,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>-2.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-7.06</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -873,7 +873,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-3.82</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -882,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -891,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>-8.869999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -900,7 +900,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>-3.14</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -909,7 +909,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>-11.31</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -918,7 +918,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>-9.42</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -927,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>-4.45</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -936,7 +936,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>-0.21</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -945,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-0.5600000000000001</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -954,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>-2.75</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -963,7 +963,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-3.43</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -972,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-3.71</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -981,7 +981,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-3.05</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -990,7 +990,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-1.18</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -999,7 +999,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-0.1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-2.04</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-0.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-3.74</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1035,7 +1035,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>0.49</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-5.24</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-4.14</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-6.44</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1080,7 +1080,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>-1.61</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1089,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>-2.81</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-1.58</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1107,7 +1107,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-2.59</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1116,7 +1116,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>-2.76</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>-2.53</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1134,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>-0.76</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1143,7 +1143,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>-1.21</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1152,7 +1152,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>-0.85</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1161,7 +1161,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>-1.52</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>0.39</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1179,7 +1179,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>-3</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1188,7 +1188,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>-3.9</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>-0.98</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1206,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>-1.76</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1215,7 +1215,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>-0.2</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>-1.55</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1233,7 +1233,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>-2.66</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1242,7 +1242,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-0.6899999999999999</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-1.94</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-2.6</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>4.04</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-2.6</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1287,7 +1287,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-2.08</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>-4.64</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1305,7 +1305,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>-0.53</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1314,7 +1314,7 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>-4.87</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>-2.41</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>-1.39</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1341,7 +1341,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>-2.38</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>-3.98</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>-0.47</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>-0.28</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>-7.12</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>-2.18</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>0.71</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>-1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>-2.46</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>-0.67</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>-2</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>-5.94</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>-1.33</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>-3.36</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>-1.01</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>-2.08</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-2.96</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-2.48</v>
+        <v>-1.98</v>
       </c>
     </row>
   </sheetData>

--- a/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
@@ -14,15 +14,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Cotação</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>HAPV3.SA</t>
+  </si>
+  <si>
+    <t>POSI3.SA</t>
+  </si>
+  <si>
+    <t>CASH3.SA</t>
+  </si>
+  <si>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>AMER3.SA</t>
+  </si>
+  <si>
+    <t>QUAL3.SA</t>
+  </si>
+  <si>
+    <t>LREN3.SA</t>
+  </si>
+  <si>
+    <t>PETZ3.SA</t>
+  </si>
+  <si>
+    <t>COGN3.SA</t>
+  </si>
+  <si>
+    <t>MRVE3.SA</t>
+  </si>
+  <si>
+    <t>RRRP3.SA</t>
+  </si>
+  <si>
+    <t>CSNA3.SA</t>
+  </si>
+  <si>
+    <t>YDUQ3.SA</t>
+  </si>
+  <si>
+    <t>SOMA3.SA</t>
+  </si>
+  <si>
+    <t>CYRE3.SA</t>
+  </si>
+  <si>
+    <t>TIMS3.SA</t>
+  </si>
+  <si>
+    <t>EZTC3.SA</t>
+  </si>
+  <si>
+    <t>NTCO3.SA</t>
+  </si>
+  <si>
+    <t>VIIA3.SA</t>
+  </si>
+  <si>
+    <t>CPFE3.SA</t>
+  </si>
+  <si>
+    <t>B3SA3.SA</t>
+  </si>
+  <si>
+    <t>BPAC11.SA</t>
+  </si>
+  <si>
+    <t>VIVT3.SA</t>
+  </si>
+  <si>
+    <t>ALPA4.SA</t>
+  </si>
+  <si>
+    <t>PRIO3.SA</t>
+  </si>
+  <si>
+    <t>LCAM3.SA</t>
+  </si>
+  <si>
+    <t>CVCB3.SA</t>
+  </si>
+  <si>
+    <t>RDOR3.SA</t>
+  </si>
+  <si>
+    <t>RENT3.SA</t>
+  </si>
+  <si>
+    <t>MULT3.SA</t>
+  </si>
+  <si>
+    <t>SULA11.SA</t>
+  </si>
+  <si>
+    <t>VBBR3.SA</t>
+  </si>
+  <si>
+    <t>UGPA3.SA</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>FLRY3.SA</t>
+  </si>
+  <si>
+    <t>DXCO3.SA</t>
+  </si>
+  <si>
+    <t>BPAN4.SA</t>
+  </si>
+  <si>
+    <t>JHSF3.SA</t>
+  </si>
+  <si>
+    <t>ECOR3.SA</t>
+  </si>
+  <si>
+    <t>IRBR3.SA</t>
+  </si>
+  <si>
+    <t>IGTI11.SA</t>
+  </si>
+  <si>
+    <t>SBSP3.SA</t>
+  </si>
+  <si>
+    <t>BRML3.SA</t>
+  </si>
+  <si>
+    <t>ENEV3.SA</t>
+  </si>
+  <si>
+    <t>BBAS3.SA</t>
+  </si>
+  <si>
+    <t>MRFG3.SA</t>
+  </si>
+  <si>
+    <t>CMIG4.SA</t>
+  </si>
+  <si>
+    <t>AZUL4.SA</t>
+  </si>
+  <si>
+    <t>BEEF3.SA</t>
+  </si>
+  <si>
+    <t>CPLE6.SA</t>
+  </si>
+  <si>
+    <t>TAEE11.SA</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
+    <t>BBSE3.SA</t>
+  </si>
+  <si>
+    <t>EGIE3.SA</t>
+  </si>
+  <si>
+    <t>CCRO3.SA</t>
+  </si>
+  <si>
+    <t>GOLL4.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>ELET6.SA</t>
+  </si>
+  <si>
+    <t>CRFB3.SA</t>
+  </si>
+  <si>
+    <t>HYPE3.SA</t>
+  </si>
+  <si>
+    <t>BBDC3.SA</t>
+  </si>
+  <si>
+    <t>ENGI11.SA</t>
+  </si>
+  <si>
+    <t>CSAN3.SA</t>
+  </si>
+  <si>
+    <t>SANB11.SA</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>BRFS3.SA</t>
+  </si>
+  <si>
+    <t>TOTS3.SA</t>
+  </si>
+  <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>ENBR3.SA</t>
+  </si>
+  <si>
+    <t>ELET3.SA</t>
+  </si>
+  <si>
+    <t>BRKM5.SA</t>
+  </si>
+  <si>
+    <t>PETR3.SA</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>BBDC4.SA</t>
+  </si>
+  <si>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>EQTL3.SA</t>
+  </si>
+  <si>
+    <t>ASAI3.SA</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
+    <t>BIDI11.SA</t>
+  </si>
+  <si>
+    <t>KLBN11.SA</t>
+  </si>
+  <si>
+    <t>WEGE3.SA</t>
+  </si>
+  <si>
+    <t>ITSA4.SA</t>
+  </si>
+  <si>
+    <t>CIEL3.SA</t>
+  </si>
+  <si>
+    <t>GOAU4.SA</t>
+  </si>
+  <si>
+    <t>BRAP4.SA</t>
+  </si>
+  <si>
+    <t>GGBR4.SA</t>
+  </si>
+  <si>
+    <t>SUZB3.SA</t>
+  </si>
+  <si>
+    <t>EMBR3.SA</t>
+  </si>
+  <si>
+    <t>LWSA3.SA</t>
+  </si>
+  <si>
+    <t>CMIN3.SA</t>
+  </si>
+  <si>
+    <t>RADL3.SA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -75,9 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -374,74 +659,848 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-2.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="C1" s="2">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="C2">
+        <v>-6.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="C3">
+        <v>-6.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="C4">
+        <v>-6.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.52</v>
+      <c r="C5">
+        <v>-5.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>-4.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>-4.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>-4.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>-4.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>-3.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>-3.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>-3.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>-3.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>-3.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>-3.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>-3.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>-3.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>-2.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>-2.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>-2.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>-2.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>-2.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>-2.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>-2.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>-2.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>-1.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>-1.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>2.68</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A92"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Attributes</t>
   </si>
@@ -25,277 +25,280 @@
     <t>Close</t>
   </si>
   <si>
+    <t>QUAL3.SA</t>
+  </si>
+  <si>
     <t>HAPV3.SA</t>
   </si>
   <si>
+    <t>COGN3.SA</t>
+  </si>
+  <si>
+    <t>VIIA3.SA</t>
+  </si>
+  <si>
+    <t>PRIO3.SA</t>
+  </si>
+  <si>
+    <t>ASAI3.SA</t>
+  </si>
+  <si>
+    <t>ENEV3.SA</t>
+  </si>
+  <si>
+    <t>BRML3.SA</t>
+  </si>
+  <si>
+    <t>EGIE3.SA</t>
+  </si>
+  <si>
+    <t>ELET3.SA</t>
+  </si>
+  <si>
+    <t>ENBR3.SA</t>
+  </si>
+  <si>
+    <t>ELET6.SA</t>
+  </si>
+  <si>
+    <t>ALPA4.SA</t>
+  </si>
+  <si>
+    <t>SLCE3.SA</t>
+  </si>
+  <si>
+    <t>FLRY3.SA</t>
+  </si>
+  <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>TAEE11.SA</t>
+  </si>
+  <si>
+    <t>TOTS3.SA</t>
+  </si>
+  <si>
+    <t>RDOR3.SA</t>
+  </si>
+  <si>
+    <t>TIMS3.SA</t>
+  </si>
+  <si>
+    <t>SULA11.SA</t>
+  </si>
+  <si>
+    <t>EQTL3.SA</t>
+  </si>
+  <si>
+    <t>RRRP3.SA</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
+    <t>PETR3.SA</t>
+  </si>
+  <si>
+    <t>SOMA3.SA</t>
+  </si>
+  <si>
+    <t>BBSE3.SA</t>
+  </si>
+  <si>
+    <t>BPAN4.SA</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>CMIG4.SA</t>
+  </si>
+  <si>
+    <t>MULT3.SA</t>
+  </si>
+  <si>
+    <t>CPLE6.SA</t>
+  </si>
+  <si>
+    <t>BRKM5.SA</t>
+  </si>
+  <si>
+    <t>ENGI11.SA</t>
+  </si>
+  <si>
+    <t>CRFB3.SA</t>
+  </si>
+  <si>
+    <t>EMBR3.SA</t>
+  </si>
+  <si>
+    <t>PETZ3.SA</t>
+  </si>
+  <si>
+    <t>CIEL3.SA</t>
+  </si>
+  <si>
+    <t>B3SA3.SA</t>
+  </si>
+  <si>
+    <t>ECOR3.SA</t>
+  </si>
+  <si>
+    <t>BBAS3.SA</t>
+  </si>
+  <si>
+    <t>NTCO3.SA</t>
+  </si>
+  <si>
+    <t>IRBR3.SA</t>
+  </si>
+  <si>
+    <t>BBDC3.SA</t>
+  </si>
+  <si>
+    <t>SANB11.SA</t>
+  </si>
+  <si>
+    <t>JHSF3.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
+    <t>LREN3.SA</t>
+  </si>
+  <si>
+    <t>SBSP3.SA</t>
+  </si>
+  <si>
+    <t>AZUL4.SA</t>
+  </si>
+  <si>
+    <t>VIVT3.SA</t>
+  </si>
+  <si>
+    <t>KLBN11.SA</t>
+  </si>
+  <si>
+    <t>ITSA4.SA</t>
+  </si>
+  <si>
+    <t>VBBR3.SA</t>
+  </si>
+  <si>
+    <t>GOLL4.SA</t>
+  </si>
+  <si>
+    <t>BPAC11.SA</t>
+  </si>
+  <si>
+    <t>CCRO3.SA</t>
+  </si>
+  <si>
+    <t>IGTI11.SA</t>
+  </si>
+  <si>
+    <t>CSAN3.SA</t>
+  </si>
+  <si>
+    <t>YDUQ3.SA</t>
+  </si>
+  <si>
+    <t>BEEF3.SA</t>
+  </si>
+  <si>
+    <t>BRFS3.SA</t>
+  </si>
+  <si>
+    <t>EZTC3.SA</t>
+  </si>
+  <si>
+    <t>BBDC4.SA</t>
+  </si>
+  <si>
+    <t>BIDI11.SA</t>
+  </si>
+  <si>
+    <t>RADL3.SA</t>
+  </si>
+  <si>
+    <t>CPFE3.SA</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>CVCB3.SA</t>
+  </si>
+  <si>
+    <t>DXCO3.SA</t>
+  </si>
+  <si>
+    <t>UGPA3.SA</t>
+  </si>
+  <si>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>CMIN3.SA</t>
+  </si>
+  <si>
+    <t>AMER3.SA</t>
+  </si>
+  <si>
+    <t>LCAM3.SA</t>
+  </si>
+  <si>
+    <t>CASH3.SA</t>
+  </si>
+  <si>
+    <t>BRAP4.SA</t>
+  </si>
+  <si>
+    <t>HYPE3.SA</t>
+  </si>
+  <si>
+    <t>CYRE3.SA</t>
+  </si>
+  <si>
+    <t>MRVE3.SA</t>
+  </si>
+  <si>
+    <t>RENT3.SA</t>
+  </si>
+  <si>
+    <t>MRFG3.SA</t>
+  </si>
+  <si>
+    <t>GOAU4.SA</t>
+  </si>
+  <si>
+    <t>SUZB3.SA</t>
+  </si>
+  <si>
     <t>POSI3.SA</t>
   </si>
   <si>
-    <t>CASH3.SA</t>
-  </si>
-  <si>
-    <t>MGLU3.SA</t>
-  </si>
-  <si>
-    <t>AMER3.SA</t>
-  </si>
-  <si>
-    <t>QUAL3.SA</t>
-  </si>
-  <si>
-    <t>LREN3.SA</t>
-  </si>
-  <si>
-    <t>PETZ3.SA</t>
-  </si>
-  <si>
-    <t>COGN3.SA</t>
-  </si>
-  <si>
-    <t>MRVE3.SA</t>
-  </si>
-  <si>
-    <t>RRRP3.SA</t>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>LWSA3.SA</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>GGBR4.SA</t>
   </si>
   <si>
     <t>CSNA3.SA</t>
   </si>
   <si>
-    <t>YDUQ3.SA</t>
-  </si>
-  <si>
-    <t>SOMA3.SA</t>
-  </si>
-  <si>
-    <t>CYRE3.SA</t>
-  </si>
-  <si>
-    <t>TIMS3.SA</t>
-  </si>
-  <si>
-    <t>EZTC3.SA</t>
-  </si>
-  <si>
-    <t>NTCO3.SA</t>
-  </si>
-  <si>
-    <t>VIIA3.SA</t>
-  </si>
-  <si>
-    <t>CPFE3.SA</t>
-  </si>
-  <si>
-    <t>B3SA3.SA</t>
-  </si>
-  <si>
-    <t>BPAC11.SA</t>
-  </si>
-  <si>
-    <t>VIVT3.SA</t>
-  </si>
-  <si>
-    <t>ALPA4.SA</t>
-  </si>
-  <si>
-    <t>PRIO3.SA</t>
-  </si>
-  <si>
-    <t>LCAM3.SA</t>
-  </si>
-  <si>
-    <t>CVCB3.SA</t>
-  </si>
-  <si>
-    <t>RDOR3.SA</t>
-  </si>
-  <si>
-    <t>RENT3.SA</t>
-  </si>
-  <si>
-    <t>MULT3.SA</t>
-  </si>
-  <si>
-    <t>SULA11.SA</t>
-  </si>
-  <si>
-    <t>VBBR3.SA</t>
-  </si>
-  <si>
-    <t>UGPA3.SA</t>
-  </si>
-  <si>
-    <t>USIM5.SA</t>
-  </si>
-  <si>
-    <t>FLRY3.SA</t>
-  </si>
-  <si>
-    <t>DXCO3.SA</t>
-  </si>
-  <si>
-    <t>BPAN4.SA</t>
-  </si>
-  <si>
-    <t>JHSF3.SA</t>
-  </si>
-  <si>
-    <t>ECOR3.SA</t>
-  </si>
-  <si>
-    <t>IRBR3.SA</t>
-  </si>
-  <si>
-    <t>IGTI11.SA</t>
-  </si>
-  <si>
-    <t>SBSP3.SA</t>
-  </si>
-  <si>
-    <t>BRML3.SA</t>
-  </si>
-  <si>
-    <t>ENEV3.SA</t>
-  </si>
-  <si>
-    <t>BBAS3.SA</t>
-  </si>
-  <si>
-    <t>MRFG3.SA</t>
-  </si>
-  <si>
-    <t>CMIG4.SA</t>
-  </si>
-  <si>
-    <t>AZUL4.SA</t>
-  </si>
-  <si>
-    <t>BEEF3.SA</t>
-  </si>
-  <si>
-    <t>CPLE6.SA</t>
-  </si>
-  <si>
-    <t>TAEE11.SA</t>
-  </si>
-  <si>
-    <t>RAIL3.SA</t>
-  </si>
-  <si>
-    <t>BBSE3.SA</t>
-  </si>
-  <si>
-    <t>EGIE3.SA</t>
-  </si>
-  <si>
-    <t>CCRO3.SA</t>
-  </si>
-  <si>
-    <t>GOLL4.SA</t>
-  </si>
-  <si>
-    <t>JBSS3.SA</t>
-  </si>
-  <si>
-    <t>ELET6.SA</t>
-  </si>
-  <si>
-    <t>CRFB3.SA</t>
-  </si>
-  <si>
-    <t>HYPE3.SA</t>
-  </si>
-  <si>
-    <t>BBDC3.SA</t>
-  </si>
-  <si>
-    <t>ENGI11.SA</t>
-  </si>
-  <si>
-    <t>CSAN3.SA</t>
-  </si>
-  <si>
-    <t>SANB11.SA</t>
-  </si>
-  <si>
-    <t>ITUB4.SA</t>
-  </si>
-  <si>
-    <t>BRFS3.SA</t>
-  </si>
-  <si>
-    <t>TOTS3.SA</t>
-  </si>
-  <si>
-    <t>ABEV3.SA</t>
-  </si>
-  <si>
-    <t>ENBR3.SA</t>
-  </si>
-  <si>
-    <t>ELET3.SA</t>
-  </si>
-  <si>
-    <t>BRKM5.SA</t>
-  </si>
-  <si>
-    <t>PETR3.SA</t>
-  </si>
-  <si>
-    <t>PETR4.SA</t>
-  </si>
-  <si>
-    <t>BBDC4.SA</t>
-  </si>
-  <si>
-    <t>VALE3.SA</t>
-  </si>
-  <si>
-    <t>EQTL3.SA</t>
-  </si>
-  <si>
-    <t>ASAI3.SA</t>
-  </si>
-  <si>
-    <t>PCAR3.SA</t>
-  </si>
-  <si>
-    <t>BIDI11.SA</t>
-  </si>
-  <si>
-    <t>KLBN11.SA</t>
-  </si>
-  <si>
     <t>WEGE3.SA</t>
-  </si>
-  <si>
-    <t>ITSA4.SA</t>
-  </si>
-  <si>
-    <t>CIEL3.SA</t>
-  </si>
-  <si>
-    <t>GOAU4.SA</t>
-  </si>
-  <si>
-    <t>BRAP4.SA</t>
-  </si>
-  <si>
-    <t>GGBR4.SA</t>
-  </si>
-  <si>
-    <t>SUZB3.SA</t>
-  </si>
-  <si>
-    <t>EMBR3.SA</t>
-  </si>
-  <si>
-    <t>LWSA3.SA</t>
-  </si>
-  <si>
-    <t>CMIN3.SA</t>
-  </si>
-  <si>
-    <t>RADL3.SA</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>44718</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -684,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-6.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>-6.13</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -702,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-6.11</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -711,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-5.29</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -720,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-4.89</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -729,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-4.77</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -738,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-4.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -747,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-4.25</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -756,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>-4.23</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -765,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>-3.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -774,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>-3.58</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -783,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>-3.51</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -792,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-3.5</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -801,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>-3.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -810,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-3.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -819,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-3.33</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -828,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-3.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -837,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-3.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -846,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>-3.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -855,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>-3.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -864,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-3.08</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -873,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-3</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -882,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-2.96</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -891,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>-2.74</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -900,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>-2.7</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -909,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>-2.66</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -918,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>-2.65</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -927,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>-2.53</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -936,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>-2.49</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -945,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-2.44</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -954,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>-2.36</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -963,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-2.34</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -972,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-2.27</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -981,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-2.14</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -990,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-2.05</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -999,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-2.01</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1008,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-1.99</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1017,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-1.91</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1026,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-1.85</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1035,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-1.73</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1044,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-1.69</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1053,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-1.65</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1062,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-1.43</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1071,7 +1074,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-1.29</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1080,7 +1083,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>-1.24</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1089,7 +1092,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>-1.18</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1098,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-0.87</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1107,7 +1110,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-0.87</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1116,7 +1119,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>-0.84</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1125,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>-0.83</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1134,7 +1137,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>-0.82</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1143,7 +1146,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>-0.82</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1152,7 +1155,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>-0.8100000000000001</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1161,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>-0.78</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1170,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>-0.75</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1179,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>-0.74</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1188,7 +1191,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>-0.6899999999999999</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1197,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>-0.6</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1206,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>-0.53</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1215,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>-0.5</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1224,7 +1227,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>-0.48</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1233,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>-0.43</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1242,7 +1245,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-0.42</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1251,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-0.37</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1260,7 +1263,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-0.35</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1269,7 +1272,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-0.33</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1278,7 +1281,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-0.28</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1287,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-0.21</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1296,7 +1299,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>-0.19</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1305,7 +1308,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>-0.14</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1314,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>-0.07000000000000001</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1323,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>-0.06</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1332,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>0.07000000000000001</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1341,7 +1344,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>0.1</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1350,7 +1353,7 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>0.1</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1359,7 +1362,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>0.12</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1368,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>0.13</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1377,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>0.15</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1386,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0.17</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1395,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>0.18</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1404,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>0.23</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1413,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>0.43</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1422,7 +1425,7 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>0.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1431,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>0.71</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1440,7 +1443,7 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>0.77</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1449,7 +1452,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>0.8</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1458,7 +1461,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>1.1</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1467,7 +1470,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>1.16</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1476,7 +1479,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>1.69</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1485,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>1.94</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1494,12 +1497,21 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>2.68</v>
+        <v>-4.93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>-5.93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A92"/>
+    <mergeCell ref="A2:A93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
@@ -28,277 +28,277 @@
     <t>QUAL3.SA</t>
   </si>
   <si>
+    <t>CMIN3.SA</t>
+  </si>
+  <si>
+    <t>RADL3.SA</t>
+  </si>
+  <si>
+    <t>HYPE3.SA</t>
+  </si>
+  <si>
+    <t>MRFG3.SA</t>
+  </si>
+  <si>
+    <t>CIEL3.SA</t>
+  </si>
+  <si>
+    <t>FLRY3.SA</t>
+  </si>
+  <si>
+    <t>BRFS3.SA</t>
+  </si>
+  <si>
+    <t>ENEV3.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>CSNA3.SA</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>VIVT3.SA</t>
+  </si>
+  <si>
+    <t>GOAU4.SA</t>
+  </si>
+  <si>
+    <t>BRAP4.SA</t>
+  </si>
+  <si>
+    <t>EQTL3.SA</t>
+  </si>
+  <si>
+    <t>SUZB3.SA</t>
+  </si>
+  <si>
+    <t>TAEE11.SA</t>
+  </si>
+  <si>
+    <t>PRIO3.SA</t>
+  </si>
+  <si>
+    <t>JHSF3.SA</t>
+  </si>
+  <si>
+    <t>BEEF3.SA</t>
+  </si>
+  <si>
+    <t>IGTI11.SA</t>
+  </si>
+  <si>
+    <t>GGBR4.SA</t>
+  </si>
+  <si>
+    <t>MULT3.SA</t>
+  </si>
+  <si>
+    <t>BRKM5.SA</t>
+  </si>
+  <si>
+    <t>SLCE3.SA</t>
+  </si>
+  <si>
+    <t>PETR3.SA</t>
+  </si>
+  <si>
+    <t>BBDC3.SA</t>
+  </si>
+  <si>
+    <t>ENGI11.SA</t>
+  </si>
+  <si>
+    <t>SANB11.SA</t>
+  </si>
+  <si>
+    <t>CMIG4.SA</t>
+  </si>
+  <si>
+    <t>CCRO3.SA</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
+    <t>CPLE6.SA</t>
+  </si>
+  <si>
+    <t>IRBR3.SA</t>
+  </si>
+  <si>
+    <t>CSAN3.SA</t>
+  </si>
+  <si>
+    <t>TIMS3.SA</t>
+  </si>
+  <si>
+    <t>BBDC4.SA</t>
+  </si>
+  <si>
+    <t>COGN3.SA</t>
+  </si>
+  <si>
+    <t>BBAS3.SA</t>
+  </si>
+  <si>
+    <t>UGPA3.SA</t>
+  </si>
+  <si>
+    <t>EZTC3.SA</t>
+  </si>
+  <si>
+    <t>LCAM3.SA</t>
+  </si>
+  <si>
+    <t>KLBN11.SA</t>
+  </si>
+  <si>
+    <t>ITSA4.SA</t>
+  </si>
+  <si>
+    <t>WEGE3.SA</t>
+  </si>
+  <si>
+    <t>CRFB3.SA</t>
+  </si>
+  <si>
+    <t>RENT3.SA</t>
+  </si>
+  <si>
+    <t>EGIE3.SA</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>BBSE3.SA</t>
+  </si>
+  <si>
+    <t>SBSP3.SA</t>
+  </si>
+  <si>
+    <t>RDOR3.SA</t>
+  </si>
+  <si>
+    <t>B3SA3.SA</t>
+  </si>
+  <si>
+    <t>BPAN4.SA</t>
+  </si>
+  <si>
+    <t>ECOR3.SA</t>
+  </si>
+  <si>
+    <t>ENBR3.SA</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
+    <t>SULA11.SA</t>
+  </si>
+  <si>
+    <t>VIIA3.SA</t>
+  </si>
+  <si>
+    <t>ALPA4.SA</t>
+  </si>
+  <si>
+    <t>BRML3.SA</t>
+  </si>
+  <si>
+    <t>DXCO3.SA</t>
+  </si>
+  <si>
+    <t>RRRP3.SA</t>
+  </si>
+  <si>
+    <t>CPFE3.SA</t>
+  </si>
+  <si>
+    <t>BPAC11.SA</t>
+  </si>
+  <si>
     <t>HAPV3.SA</t>
   </si>
   <si>
-    <t>COGN3.SA</t>
-  </si>
-  <si>
-    <t>VIIA3.SA</t>
-  </si>
-  <si>
-    <t>PRIO3.SA</t>
-  </si>
-  <si>
     <t>ASAI3.SA</t>
   </si>
   <si>
-    <t>ENEV3.SA</t>
-  </si>
-  <si>
-    <t>BRML3.SA</t>
-  </si>
-  <si>
-    <t>EGIE3.SA</t>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>MRVE3.SA</t>
+  </si>
+  <si>
+    <t>VBBR3.SA</t>
+  </si>
+  <si>
+    <t>CYRE3.SA</t>
+  </si>
+  <si>
+    <t>CASH3.SA</t>
+  </si>
+  <si>
+    <t>LREN3.SA</t>
+  </si>
+  <si>
+    <t>TOTS3.SA</t>
+  </si>
+  <si>
+    <t>SOMA3.SA</t>
   </si>
   <si>
     <t>ELET3.SA</t>
   </si>
   <si>
-    <t>ENBR3.SA</t>
+    <t>YDUQ3.SA</t>
+  </si>
+  <si>
+    <t>LWSA3.SA</t>
+  </si>
+  <si>
+    <t>NTCO3.SA</t>
+  </si>
+  <si>
+    <t>CVCB3.SA</t>
+  </si>
+  <si>
+    <t>PETZ3.SA</t>
+  </si>
+  <si>
+    <t>GOLL4.SA</t>
+  </si>
+  <si>
+    <t>EMBR3.SA</t>
+  </si>
+  <si>
+    <t>POSI3.SA</t>
   </si>
   <si>
     <t>ELET6.SA</t>
   </si>
   <si>
-    <t>ALPA4.SA</t>
-  </si>
-  <si>
-    <t>SLCE3.SA</t>
-  </si>
-  <si>
-    <t>FLRY3.SA</t>
-  </si>
-  <si>
-    <t>ABEV3.SA</t>
-  </si>
-  <si>
-    <t>TAEE11.SA</t>
-  </si>
-  <si>
-    <t>TOTS3.SA</t>
-  </si>
-  <si>
-    <t>RDOR3.SA</t>
-  </si>
-  <si>
-    <t>TIMS3.SA</t>
-  </si>
-  <si>
-    <t>SULA11.SA</t>
-  </si>
-  <si>
-    <t>EQTL3.SA</t>
-  </si>
-  <si>
-    <t>RRRP3.SA</t>
-  </si>
-  <si>
-    <t>PCAR3.SA</t>
-  </si>
-  <si>
-    <t>PETR3.SA</t>
-  </si>
-  <si>
-    <t>SOMA3.SA</t>
-  </si>
-  <si>
-    <t>BBSE3.SA</t>
-  </si>
-  <si>
-    <t>BPAN4.SA</t>
-  </si>
-  <si>
-    <t>PETR4.SA</t>
-  </si>
-  <si>
-    <t>CMIG4.SA</t>
-  </si>
-  <si>
-    <t>MULT3.SA</t>
-  </si>
-  <si>
-    <t>CPLE6.SA</t>
-  </si>
-  <si>
-    <t>BRKM5.SA</t>
-  </si>
-  <si>
-    <t>ENGI11.SA</t>
-  </si>
-  <si>
-    <t>CRFB3.SA</t>
-  </si>
-  <si>
-    <t>EMBR3.SA</t>
-  </si>
-  <si>
-    <t>PETZ3.SA</t>
-  </si>
-  <si>
-    <t>CIEL3.SA</t>
-  </si>
-  <si>
-    <t>B3SA3.SA</t>
-  </si>
-  <si>
-    <t>ECOR3.SA</t>
-  </si>
-  <si>
-    <t>BBAS3.SA</t>
-  </si>
-  <si>
-    <t>NTCO3.SA</t>
-  </si>
-  <si>
-    <t>IRBR3.SA</t>
-  </si>
-  <si>
-    <t>BBDC3.SA</t>
-  </si>
-  <si>
-    <t>SANB11.SA</t>
-  </si>
-  <si>
-    <t>JHSF3.SA</t>
-  </si>
-  <si>
-    <t>JBSS3.SA</t>
-  </si>
-  <si>
-    <t>RAIL3.SA</t>
-  </si>
-  <si>
-    <t>LREN3.SA</t>
-  </si>
-  <si>
-    <t>SBSP3.SA</t>
-  </si>
-  <si>
     <t>AZUL4.SA</t>
   </si>
   <si>
-    <t>VIVT3.SA</t>
-  </si>
-  <si>
-    <t>KLBN11.SA</t>
-  </si>
-  <si>
-    <t>ITSA4.SA</t>
-  </si>
-  <si>
-    <t>VBBR3.SA</t>
-  </si>
-  <si>
-    <t>GOLL4.SA</t>
-  </si>
-  <si>
-    <t>BPAC11.SA</t>
-  </si>
-  <si>
-    <t>CCRO3.SA</t>
-  </si>
-  <si>
-    <t>IGTI11.SA</t>
-  </si>
-  <si>
-    <t>CSAN3.SA</t>
-  </si>
-  <si>
-    <t>YDUQ3.SA</t>
-  </si>
-  <si>
-    <t>BEEF3.SA</t>
-  </si>
-  <si>
-    <t>BRFS3.SA</t>
-  </si>
-  <si>
-    <t>EZTC3.SA</t>
-  </si>
-  <si>
-    <t>BBDC4.SA</t>
-  </si>
-  <si>
     <t>BIDI11.SA</t>
   </si>
   <si>
-    <t>RADL3.SA</t>
-  </si>
-  <si>
-    <t>CPFE3.SA</t>
-  </si>
-  <si>
-    <t>ITUB4.SA</t>
-  </si>
-  <si>
-    <t>CVCB3.SA</t>
-  </si>
-  <si>
-    <t>DXCO3.SA</t>
-  </si>
-  <si>
-    <t>UGPA3.SA</t>
-  </si>
-  <si>
-    <t>MGLU3.SA</t>
-  </si>
-  <si>
-    <t>CMIN3.SA</t>
-  </si>
-  <si>
     <t>AMER3.SA</t>
-  </si>
-  <si>
-    <t>LCAM3.SA</t>
-  </si>
-  <si>
-    <t>CASH3.SA</t>
-  </si>
-  <si>
-    <t>BRAP4.SA</t>
-  </si>
-  <si>
-    <t>HYPE3.SA</t>
-  </si>
-  <si>
-    <t>CYRE3.SA</t>
-  </si>
-  <si>
-    <t>MRVE3.SA</t>
-  </si>
-  <si>
-    <t>RENT3.SA</t>
-  </si>
-  <si>
-    <t>MRFG3.SA</t>
-  </si>
-  <si>
-    <t>GOAU4.SA</t>
-  </si>
-  <si>
-    <t>SUZB3.SA</t>
-  </si>
-  <si>
-    <t>POSI3.SA</t>
-  </si>
-  <si>
-    <t>VALE3.SA</t>
-  </si>
-  <si>
-    <t>LWSA3.SA</t>
-  </si>
-  <si>
-    <t>USIM5.SA</t>
-  </si>
-  <si>
-    <t>GGBR4.SA</t>
-  </si>
-  <si>
-    <t>CSNA3.SA</t>
-  </si>
-  <si>
-    <t>WEGE3.SA</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>44720</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3.07</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2.41</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.38</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1.79</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.53</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.27</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.07</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.84</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -768,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.8100000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.71</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -786,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.68</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -795,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.64</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -804,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0.33</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -822,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.22</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>0.15</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-0.08</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -876,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-0.12</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -885,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-0.15</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>-0.2</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -903,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>-0.38</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -912,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>-0.38</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -921,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>-0.39</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -930,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>-0.42</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -939,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>-0.49</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -948,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-0.54</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>-0.55</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-0.5600000000000001</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-0.58</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -984,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-0.73</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -993,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-0.75</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-0.76</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-0.77</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-0.79</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-0.84</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-0.87</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-0.9</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-0.9399999999999999</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-1.08</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-1.11</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>-1.13</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>-1.22</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-1.23</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-1.23</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>-1.24</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>-1.25</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>-1.25</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1146,7 +1146,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>-1.27</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>-1.3</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>-1.39</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>-1.45</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1182,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>-1.45</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>-1.5</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>-1.52</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1209,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>-1.64</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>-1.65</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>-1.71</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>-1.72</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-1.72</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-1.75</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-1.77</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-1.77</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1281,7 +1281,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-1.87</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-1.9</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>-1.92</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1308,7 +1308,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>-1.95</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>-2.01</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>-2.11</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>-2.13</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>-2.14</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>-2.28</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>-2.35</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>-2.41</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>-2.42</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>-2.44</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>-2.55</v>
+        <v>-4.74</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1407,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>-2.58</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>-2.78</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>-2.83</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>-3.13</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>-3.17</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>-3.21</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>-3.44</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>-3.58</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>-4.32</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-4.9</v>
+        <v>-6.62</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-4.93</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1506,7 +1506,7 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>-5.93</v>
+        <v>-10.63</v>
       </c>
     </row>
   </sheetData>

--- a/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
@@ -25,280 +25,280 @@
     <t>Close</t>
   </si>
   <si>
+    <t>CIEL3.SA</t>
+  </si>
+  <si>
+    <t>SUZB3.SA</t>
+  </si>
+  <si>
+    <t>ENBR3.SA</t>
+  </si>
+  <si>
+    <t>TAEE11.SA</t>
+  </si>
+  <si>
+    <t>EGIE3.SA</t>
+  </si>
+  <si>
+    <t>KLBN11.SA</t>
+  </si>
+  <si>
+    <t>BBSE3.SA</t>
+  </si>
+  <si>
+    <t>WEGE3.SA</t>
+  </si>
+  <si>
+    <t>ELET6.SA</t>
+  </si>
+  <si>
+    <t>CPLE6.SA</t>
+  </si>
+  <si>
+    <t>B3SA3.SA</t>
+  </si>
+  <si>
+    <t>ENGI11.SA</t>
+  </si>
+  <si>
+    <t>CYRE3.SA</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>VIVT3.SA</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>CMIG4.SA</t>
+  </si>
+  <si>
+    <t>BBDC4.SA</t>
+  </si>
+  <si>
+    <t>PETR3.SA</t>
+  </si>
+  <si>
+    <t>CPFE3.SA</t>
+  </si>
+  <si>
+    <t>BBDC3.SA</t>
+  </si>
+  <si>
+    <t>ITSA4.SA</t>
+  </si>
+  <si>
+    <t>EZTC3.SA</t>
+  </si>
+  <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>SANB11.SA</t>
+  </si>
+  <si>
+    <t>ELET3.SA</t>
+  </si>
+  <si>
+    <t>BBAS3.SA</t>
+  </si>
+  <si>
+    <t>SBSP3.SA</t>
+  </si>
+  <si>
+    <t>SLCE3.SA</t>
+  </si>
+  <si>
+    <t>HYPE3.SA</t>
+  </si>
+  <si>
+    <t>TIMS3.SA</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
+    <t>EQTL3.SA</t>
+  </si>
+  <si>
+    <t>FLRY3.SA</t>
+  </si>
+  <si>
+    <t>IGTI11.SA</t>
+  </si>
+  <si>
+    <t>CMIN3.SA</t>
+  </si>
+  <si>
+    <t>RADL3.SA</t>
+  </si>
+  <si>
+    <t>ENEV3.SA</t>
+  </si>
+  <si>
+    <t>VBBR3.SA</t>
+  </si>
+  <si>
+    <t>BPAC11.SA</t>
+  </si>
+  <si>
+    <t>ASAI3.SA</t>
+  </si>
+  <si>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>MRVE3.SA</t>
+  </si>
+  <si>
+    <t>SULA11.SA</t>
+  </si>
+  <si>
+    <t>SOMA3.SA</t>
+  </si>
+  <si>
+    <t>MULT3.SA</t>
+  </si>
+  <si>
+    <t>DXCO3.SA</t>
+  </si>
+  <si>
     <t>QUAL3.SA</t>
   </si>
   <si>
-    <t>CMIN3.SA</t>
-  </si>
-  <si>
-    <t>RADL3.SA</t>
-  </si>
-  <si>
-    <t>HYPE3.SA</t>
+    <t>RDOR3.SA</t>
+  </si>
+  <si>
+    <t>BRAP4.SA</t>
+  </si>
+  <si>
+    <t>BRML3.SA</t>
+  </si>
+  <si>
+    <t>CSAN3.SA</t>
+  </si>
+  <si>
+    <t>LREN3.SA</t>
+  </si>
+  <si>
+    <t>ALPA4.SA</t>
+  </si>
+  <si>
+    <t>BPAN4.SA</t>
+  </si>
+  <si>
+    <t>PRIO3.SA</t>
+  </si>
+  <si>
+    <t>UGPA3.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>CRFB3.SA</t>
+  </si>
+  <si>
+    <t>BIDI11.SA</t>
+  </si>
+  <si>
+    <t>RRRP3.SA</t>
+  </si>
+  <si>
+    <t>BRKM5.SA</t>
+  </si>
+  <si>
+    <t>POSI3.SA</t>
+  </si>
+  <si>
+    <t>JHSF3.SA</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>LCAM3.SA</t>
+  </si>
+  <si>
+    <t>CCRO3.SA</t>
+  </si>
+  <si>
+    <t>IRBR3.SA</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
+    <t>GGBR4.SA</t>
+  </si>
+  <si>
+    <t>GOAU4.SA</t>
+  </si>
+  <si>
+    <t>BEEF3.SA</t>
+  </si>
+  <si>
+    <t>RENT3.SA</t>
   </si>
   <si>
     <t>MRFG3.SA</t>
   </si>
   <si>
-    <t>CIEL3.SA</t>
-  </si>
-  <si>
-    <t>FLRY3.SA</t>
+    <t>EMBR3.SA</t>
+  </si>
+  <si>
+    <t>TOTS3.SA</t>
+  </si>
+  <si>
+    <t>CSNA3.SA</t>
+  </si>
+  <si>
+    <t>HAPV3.SA</t>
+  </si>
+  <si>
+    <t>YDUQ3.SA</t>
   </si>
   <si>
     <t>BRFS3.SA</t>
   </si>
   <si>
-    <t>ENEV3.SA</t>
-  </si>
-  <si>
-    <t>JBSS3.SA</t>
-  </si>
-  <si>
-    <t>VALE3.SA</t>
-  </si>
-  <si>
-    <t>CSNA3.SA</t>
-  </si>
-  <si>
-    <t>USIM5.SA</t>
-  </si>
-  <si>
-    <t>ABEV3.SA</t>
-  </si>
-  <si>
-    <t>VIVT3.SA</t>
-  </si>
-  <si>
-    <t>GOAU4.SA</t>
-  </si>
-  <si>
-    <t>BRAP4.SA</t>
-  </si>
-  <si>
-    <t>EQTL3.SA</t>
-  </si>
-  <si>
-    <t>SUZB3.SA</t>
-  </si>
-  <si>
-    <t>TAEE11.SA</t>
-  </si>
-  <si>
-    <t>PRIO3.SA</t>
-  </si>
-  <si>
-    <t>JHSF3.SA</t>
-  </si>
-  <si>
-    <t>BEEF3.SA</t>
-  </si>
-  <si>
-    <t>IGTI11.SA</t>
-  </si>
-  <si>
-    <t>GGBR4.SA</t>
-  </si>
-  <si>
-    <t>MULT3.SA</t>
-  </si>
-  <si>
-    <t>BRKM5.SA</t>
-  </si>
-  <si>
-    <t>SLCE3.SA</t>
-  </si>
-  <si>
-    <t>PETR3.SA</t>
-  </si>
-  <si>
-    <t>BBDC3.SA</t>
-  </si>
-  <si>
-    <t>ENGI11.SA</t>
-  </si>
-  <si>
-    <t>SANB11.SA</t>
-  </si>
-  <si>
-    <t>CMIG4.SA</t>
-  </si>
-  <si>
-    <t>CCRO3.SA</t>
-  </si>
-  <si>
-    <t>PETR4.SA</t>
-  </si>
-  <si>
-    <t>PCAR3.SA</t>
-  </si>
-  <si>
-    <t>CPLE6.SA</t>
-  </si>
-  <si>
-    <t>IRBR3.SA</t>
-  </si>
-  <si>
-    <t>CSAN3.SA</t>
-  </si>
-  <si>
-    <t>TIMS3.SA</t>
-  </si>
-  <si>
-    <t>BBDC4.SA</t>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>ECOR3.SA</t>
+  </si>
+  <si>
+    <t>NTCO3.SA</t>
   </si>
   <si>
     <t>COGN3.SA</t>
   </si>
   <si>
-    <t>BBAS3.SA</t>
-  </si>
-  <si>
-    <t>UGPA3.SA</t>
-  </si>
-  <si>
-    <t>EZTC3.SA</t>
-  </si>
-  <si>
-    <t>LCAM3.SA</t>
-  </si>
-  <si>
-    <t>KLBN11.SA</t>
-  </si>
-  <si>
-    <t>ITSA4.SA</t>
-  </si>
-  <si>
-    <t>WEGE3.SA</t>
-  </si>
-  <si>
-    <t>CRFB3.SA</t>
-  </si>
-  <si>
-    <t>RENT3.SA</t>
-  </si>
-  <si>
-    <t>EGIE3.SA</t>
-  </si>
-  <si>
-    <t>ITUB4.SA</t>
-  </si>
-  <si>
-    <t>BBSE3.SA</t>
-  </si>
-  <si>
-    <t>SBSP3.SA</t>
-  </si>
-  <si>
-    <t>RDOR3.SA</t>
-  </si>
-  <si>
-    <t>B3SA3.SA</t>
-  </si>
-  <si>
-    <t>BPAN4.SA</t>
-  </si>
-  <si>
-    <t>ECOR3.SA</t>
-  </si>
-  <si>
-    <t>ENBR3.SA</t>
-  </si>
-  <si>
-    <t>RAIL3.SA</t>
-  </si>
-  <si>
-    <t>SULA11.SA</t>
+    <t>AMER3.SA</t>
+  </si>
+  <si>
+    <t>LWSA3.SA</t>
+  </si>
+  <si>
+    <t>PETZ3.SA</t>
   </si>
   <si>
     <t>VIIA3.SA</t>
   </si>
   <si>
-    <t>ALPA4.SA</t>
-  </si>
-  <si>
-    <t>BRML3.SA</t>
-  </si>
-  <si>
-    <t>DXCO3.SA</t>
-  </si>
-  <si>
-    <t>RRRP3.SA</t>
-  </si>
-  <si>
-    <t>CPFE3.SA</t>
-  </si>
-  <si>
-    <t>BPAC11.SA</t>
-  </si>
-  <si>
-    <t>HAPV3.SA</t>
-  </si>
-  <si>
-    <t>ASAI3.SA</t>
-  </si>
-  <si>
-    <t>MGLU3.SA</t>
-  </si>
-  <si>
-    <t>MRVE3.SA</t>
-  </si>
-  <si>
-    <t>VBBR3.SA</t>
-  </si>
-  <si>
-    <t>CYRE3.SA</t>
+    <t>AZUL4.SA</t>
   </si>
   <si>
     <t>CASH3.SA</t>
   </si>
   <si>
-    <t>LREN3.SA</t>
-  </si>
-  <si>
-    <t>TOTS3.SA</t>
-  </si>
-  <si>
-    <t>SOMA3.SA</t>
-  </si>
-  <si>
-    <t>ELET3.SA</t>
-  </si>
-  <si>
-    <t>YDUQ3.SA</t>
-  </si>
-  <si>
-    <t>LWSA3.SA</t>
-  </si>
-  <si>
-    <t>NTCO3.SA</t>
-  </si>
-  <si>
     <t>CVCB3.SA</t>
   </si>
   <si>
-    <t>PETZ3.SA</t>
-  </si>
-  <si>
     <t>GOLL4.SA</t>
-  </si>
-  <si>
-    <t>EMBR3.SA</t>
-  </si>
-  <si>
-    <t>POSI3.SA</t>
-  </si>
-  <si>
-    <t>ELET6.SA</t>
-  </si>
-  <si>
-    <t>AZUL4.SA</t>
-  </si>
-  <si>
-    <t>BIDI11.SA</t>
-  </si>
-  <si>
-    <t>AMER3.SA</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>44722</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>7.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3.98</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.53</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.53</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.46</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.27</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.21</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -768,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.09</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -786,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>-0.05</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -795,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-0.1</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -804,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>-0.15</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-0.15</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -822,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-0.17</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-0.17</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-0.21</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>-0.31</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>-0.44</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-0.44</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -876,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-0.6</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -885,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-0.64</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>-0.65</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -903,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>-0.65</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -912,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>-0.66</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -921,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>-0.9399999999999999</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -930,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>-0.96</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -939,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>-1.26</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -948,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-1.3</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>-1.3</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-1.33</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-1.36</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -984,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-1.36</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -993,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-1.4</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-1.4</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-1.42</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-1.42</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-1.45</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-1.46</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-1.49</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-1.57</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-1.68</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-1.7</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>-1.82</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>-1.87</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-1.97</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-1.98</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>-2.12</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>-2.14</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>-2.15</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1146,7 +1146,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>-2.15</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>-2.19</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>-2.23</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>-2.23</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1182,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>-2.35</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>-2.43</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>-2.43</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1209,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>-2.46</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>-2.57</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>-2.62</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>-2.62</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-2.75</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-2.98</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-3.01</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-3.03</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1281,7 +1281,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-3.15</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-3.21</v>
+        <v>-5.05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>-3.4</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1308,7 +1308,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>-3.53</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>-3.59</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>-3.65</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>-3.98</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>-4.02</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>-4.09</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>-4.38</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>-4.52</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>-4.65</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>-4.65</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>-4.74</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1407,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>-4.94</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>-5.11</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>-5.27</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>-5.39</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>-5.67</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>-5.68</v>
+        <v>-9.67</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>-5.71</v>
+        <v>-9.869999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>-6.39</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>-6.59</v>
+        <v>-10.92</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-6.62</v>
+        <v>-11.11</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-6.87</v>
+        <v>-11.72</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1506,7 +1506,7 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>-10.63</v>
+        <v>-14.46</v>
       </c>
     </row>
   </sheetData>

--- a/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
+++ b/VARIAÇÃO ÍNDICES/ibov_cotação.xlsx
@@ -25,280 +25,280 @@
     <t>Close</t>
   </si>
   <si>
+    <t>IRBR3.SA</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>PETR3.SA</t>
+  </si>
+  <si>
+    <t>ELET3.SA</t>
+  </si>
+  <si>
+    <t>RENT3.SA</t>
+  </si>
+  <si>
+    <t>ENBR3.SA</t>
+  </si>
+  <si>
+    <t>TOTS3.SA</t>
+  </si>
+  <si>
+    <t>ELET6.SA</t>
+  </si>
+  <si>
+    <t>CMIG4.SA</t>
+  </si>
+  <si>
+    <t>YDUQ3.SA</t>
+  </si>
+  <si>
+    <t>LCAM3.SA</t>
+  </si>
+  <si>
+    <t>CPLE6.SA</t>
+  </si>
+  <si>
+    <t>CPFE3.SA</t>
+  </si>
+  <si>
+    <t>PRIO3.SA</t>
+  </si>
+  <si>
+    <t>BRML3.SA</t>
+  </si>
+  <si>
+    <t>DXCO3.SA</t>
+  </si>
+  <si>
+    <t>ECOR3.SA</t>
+  </si>
+  <si>
+    <t>EQTL3.SA</t>
+  </si>
+  <si>
+    <t>SANB11.SA</t>
+  </si>
+  <si>
+    <t>BBDC4.SA</t>
+  </si>
+  <si>
+    <t>BBDC3.SA</t>
+  </si>
+  <si>
+    <t>EGIE3.SA</t>
+  </si>
+  <si>
+    <t>BBSE3.SA</t>
+  </si>
+  <si>
+    <t>BBAS3.SA</t>
+  </si>
+  <si>
+    <t>ASAI3.SA</t>
+  </si>
+  <si>
+    <t>HAPV3.SA</t>
+  </si>
+  <si>
+    <t>VIVT3.SA</t>
+  </si>
+  <si>
+    <t>JHSF3.SA</t>
+  </si>
+  <si>
+    <t>TAEE11.SA</t>
+  </si>
+  <si>
+    <t>ITSA4.SA</t>
+  </si>
+  <si>
+    <t>COGN3.SA</t>
+  </si>
+  <si>
+    <t>IGTI11.SA</t>
+  </si>
+  <si>
+    <t>CYRE3.SA</t>
+  </si>
+  <si>
+    <t>TIMS3.SA</t>
+  </si>
+  <si>
+    <t>LREN3.SA</t>
+  </si>
+  <si>
+    <t>WEGE3.SA</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>MULT3.SA</t>
+  </si>
+  <si>
+    <t>CASH3.SA</t>
+  </si>
+  <si>
+    <t>BRKM5.SA</t>
+  </si>
+  <si>
+    <t>ENGI11.SA</t>
+  </si>
+  <si>
+    <t>CCRO3.SA</t>
+  </si>
+  <si>
+    <t>SOMA3.SA</t>
+  </si>
+  <si>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>EMBR3.SA</t>
+  </si>
+  <si>
+    <t>LWSA3.SA</t>
+  </si>
+  <si>
+    <t>CRFB3.SA</t>
+  </si>
+  <si>
+    <t>BRFS3.SA</t>
+  </si>
+  <si>
+    <t>UGPA3.SA</t>
+  </si>
+  <si>
+    <t>FLRY3.SA</t>
+  </si>
+  <si>
+    <t>SBSP3.SA</t>
+  </si>
+  <si>
+    <t>BPAC11.SA</t>
+  </si>
+  <si>
+    <t>RDOR3.SA</t>
+  </si>
+  <si>
+    <t>VBBR3.SA</t>
+  </si>
+  <si>
     <t>CIEL3.SA</t>
   </si>
   <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>EZTC3.SA</t>
+  </si>
+  <si>
+    <t>SLCE3.SA</t>
+  </si>
+  <si>
+    <t>BRAP4.SA</t>
+  </si>
+  <si>
+    <t>GOAU4.SA</t>
+  </si>
+  <si>
+    <t>BEEF3.SA</t>
+  </si>
+  <si>
+    <t>B3SA3.SA</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
+    <t>CSAN3.SA</t>
+  </si>
+  <si>
+    <t>SULA11.SA</t>
+  </si>
+  <si>
+    <t>GGBR4.SA</t>
+  </si>
+  <si>
+    <t>GOLL4.SA</t>
+  </si>
+  <si>
+    <t>POSI3.SA</t>
+  </si>
+  <si>
+    <t>CSNA3.SA</t>
+  </si>
+  <si>
+    <t>NTCO3.SA</t>
+  </si>
+  <si>
+    <t>HYPE3.SA</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>RRRP3.SA</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
+    <t>MRFG3.SA</t>
+  </si>
+  <si>
+    <t>MRVE3.SA</t>
+  </si>
+  <si>
+    <t>AZUL4.SA</t>
+  </si>
+  <si>
+    <t>BPAN4.SA</t>
+  </si>
+  <si>
     <t>SUZB3.SA</t>
   </si>
   <si>
-    <t>ENBR3.SA</t>
-  </si>
-  <si>
-    <t>TAEE11.SA</t>
-  </si>
-  <si>
-    <t>EGIE3.SA</t>
-  </si>
-  <si>
     <t>KLBN11.SA</t>
   </si>
   <si>
-    <t>BBSE3.SA</t>
-  </si>
-  <si>
-    <t>WEGE3.SA</t>
-  </si>
-  <si>
-    <t>ELET6.SA</t>
-  </si>
-  <si>
-    <t>CPLE6.SA</t>
-  </si>
-  <si>
-    <t>B3SA3.SA</t>
-  </si>
-  <si>
-    <t>ENGI11.SA</t>
-  </si>
-  <si>
-    <t>CYRE3.SA</t>
-  </si>
-  <si>
-    <t>ITUB4.SA</t>
-  </si>
-  <si>
-    <t>VIVT3.SA</t>
-  </si>
-  <si>
-    <t>PETR4.SA</t>
-  </si>
-  <si>
-    <t>CMIG4.SA</t>
-  </si>
-  <si>
-    <t>BBDC4.SA</t>
-  </si>
-  <si>
-    <t>PETR3.SA</t>
-  </si>
-  <si>
-    <t>CPFE3.SA</t>
-  </si>
-  <si>
-    <t>BBDC3.SA</t>
-  </si>
-  <si>
-    <t>ITSA4.SA</t>
-  </si>
-  <si>
-    <t>EZTC3.SA</t>
-  </si>
-  <si>
-    <t>ABEV3.SA</t>
-  </si>
-  <si>
-    <t>SANB11.SA</t>
-  </si>
-  <si>
-    <t>ELET3.SA</t>
-  </si>
-  <si>
-    <t>BBAS3.SA</t>
-  </si>
-  <si>
-    <t>SBSP3.SA</t>
-  </si>
-  <si>
-    <t>SLCE3.SA</t>
-  </si>
-  <si>
-    <t>HYPE3.SA</t>
-  </si>
-  <si>
-    <t>TIMS3.SA</t>
-  </si>
-  <si>
-    <t>RAIL3.SA</t>
-  </si>
-  <si>
-    <t>EQTL3.SA</t>
-  </si>
-  <si>
-    <t>FLRY3.SA</t>
-  </si>
-  <si>
-    <t>IGTI11.SA</t>
-  </si>
-  <si>
     <t>CMIN3.SA</t>
   </si>
   <si>
+    <t>ALPA4.SA</t>
+  </si>
+  <si>
+    <t>PETZ3.SA</t>
+  </si>
+  <si>
+    <t>BIDI11.SA</t>
+  </si>
+  <si>
+    <t>ENEV3.SA</t>
+  </si>
+  <si>
+    <t>AMER3.SA</t>
+  </si>
+  <si>
+    <t>QUAL3.SA</t>
+  </si>
+  <si>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>CVCB3.SA</t>
+  </si>
+  <si>
     <t>RADL3.SA</t>
   </si>
   <si>
-    <t>ENEV3.SA</t>
-  </si>
-  <si>
-    <t>VBBR3.SA</t>
-  </si>
-  <si>
-    <t>BPAC11.SA</t>
-  </si>
-  <si>
-    <t>ASAI3.SA</t>
-  </si>
-  <si>
-    <t>VALE3.SA</t>
-  </si>
-  <si>
-    <t>MRVE3.SA</t>
-  </si>
-  <si>
-    <t>SULA11.SA</t>
-  </si>
-  <si>
-    <t>SOMA3.SA</t>
-  </si>
-  <si>
-    <t>MULT3.SA</t>
-  </si>
-  <si>
-    <t>DXCO3.SA</t>
-  </si>
-  <si>
-    <t>QUAL3.SA</t>
-  </si>
-  <si>
-    <t>RDOR3.SA</t>
-  </si>
-  <si>
-    <t>BRAP4.SA</t>
-  </si>
-  <si>
-    <t>BRML3.SA</t>
-  </si>
-  <si>
-    <t>CSAN3.SA</t>
-  </si>
-  <si>
-    <t>LREN3.SA</t>
-  </si>
-  <si>
-    <t>ALPA4.SA</t>
-  </si>
-  <si>
-    <t>BPAN4.SA</t>
-  </si>
-  <si>
-    <t>PRIO3.SA</t>
-  </si>
-  <si>
-    <t>UGPA3.SA</t>
-  </si>
-  <si>
-    <t>JBSS3.SA</t>
-  </si>
-  <si>
-    <t>CRFB3.SA</t>
-  </si>
-  <si>
-    <t>BIDI11.SA</t>
-  </si>
-  <si>
-    <t>RRRP3.SA</t>
-  </si>
-  <si>
-    <t>BRKM5.SA</t>
-  </si>
-  <si>
-    <t>POSI3.SA</t>
-  </si>
-  <si>
-    <t>JHSF3.SA</t>
-  </si>
-  <si>
-    <t>USIM5.SA</t>
-  </si>
-  <si>
-    <t>LCAM3.SA</t>
-  </si>
-  <si>
-    <t>CCRO3.SA</t>
-  </si>
-  <si>
-    <t>IRBR3.SA</t>
-  </si>
-  <si>
-    <t>PCAR3.SA</t>
-  </si>
-  <si>
-    <t>GGBR4.SA</t>
-  </si>
-  <si>
-    <t>GOAU4.SA</t>
-  </si>
-  <si>
-    <t>BEEF3.SA</t>
-  </si>
-  <si>
-    <t>RENT3.SA</t>
-  </si>
-  <si>
-    <t>MRFG3.SA</t>
-  </si>
-  <si>
-    <t>EMBR3.SA</t>
-  </si>
-  <si>
-    <t>TOTS3.SA</t>
-  </si>
-  <si>
-    <t>CSNA3.SA</t>
-  </si>
-  <si>
-    <t>HAPV3.SA</t>
-  </si>
-  <si>
-    <t>YDUQ3.SA</t>
-  </si>
-  <si>
-    <t>BRFS3.SA</t>
-  </si>
-  <si>
-    <t>MGLU3.SA</t>
-  </si>
-  <si>
-    <t>ECOR3.SA</t>
-  </si>
-  <si>
-    <t>NTCO3.SA</t>
-  </si>
-  <si>
-    <t>COGN3.SA</t>
-  </si>
-  <si>
-    <t>AMER3.SA</t>
-  </si>
-  <si>
-    <t>LWSA3.SA</t>
-  </si>
-  <si>
-    <t>PETZ3.SA</t>
-  </si>
-  <si>
     <t>VIIA3.SA</t>
-  </si>
-  <si>
-    <t>AZUL4.SA</t>
-  </si>
-  <si>
-    <t>CASH3.SA</t>
-  </si>
-  <si>
-    <t>CVCB3.SA</t>
-  </si>
-  <si>
-    <t>GOLL4.SA</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>44725</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.32</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.64</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-0.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-0.09</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-0.24</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-0.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>-0.8100000000000001</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -768,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>-0.86</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>-1.03</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -786,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>-1.11</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -795,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-1.15</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -804,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>-1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-1.2</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -822,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-1.28</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-1.47</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-1.47</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>-1.52</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>-1.53</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-1.57</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -876,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-1.57</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -885,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-1.79</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>-1.91</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -903,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>-1.93</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -912,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>-2.05</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -921,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>-2.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -930,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>-2.3</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -939,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>-2.37</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -948,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-2.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>-2.58</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -966,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-2.58</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-2.65</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -984,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-2.77</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -993,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-2.79</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-2.87</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-2.88</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-2.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-3.03</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-3.13</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-3.17</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-3.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-3.38</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>-3.39</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>-3.41</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-3.41</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-3.52</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>-3.55</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>-3.6</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>-3.73</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1146,7 +1146,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>-3.75</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>-3.86</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>-3.9</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1173,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>-3.95</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1182,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>-3.95</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>-4</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>-4.11</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1209,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>-4.15</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>-4.17</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>-4.29</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>-4.4</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-4.64</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-4.71</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-4.85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1272,7 +1272,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-4.88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1281,7 +1281,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-4.98</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-5.05</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>-5.24</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1308,7 +1308,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>-5.32</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>-5.51</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>-5.53</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>-5.58</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>-5.7</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>-5.81</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>-5.91</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>-6.06</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>-6.32</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>-6.32</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>-7.33</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1407,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>-7.93</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>-8.16</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>-8.31</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>-8.369999999999999</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>-8.74</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>-9.67</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>-9.869999999999999</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>-9.890000000000001</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>-10.92</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-11.11</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-11.72</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1506,7 +1506,7 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>-14.46</v>
+        <v>-4.71</v>
       </c>
     </row>
   </sheetData>
